--- a/output/celica-data.xlsx
+++ b/output/celica-data.xlsx
@@ -12,21 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>model</t>
   </si>
   <si>
     <t>generation</t>
   </si>
   <si>
-    <t>startedProduction</t>
-  </si>
-  <si>
-    <t>finishedProduction</t>
+    <t>productionStartYear</t>
+  </si>
+  <si>
+    <t>productionEndYear</t>
   </si>
   <si>
     <t>platform</t>
@@ -35,16 +35,16 @@
     <t>engineCode</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>engineSize</t>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>displacement</t>
   </si>
   <si>
     <t>valves</t>
   </si>
   <si>
-    <t>maxTorque</t>
+    <t>torqueOutput</t>
   </si>
   <si>
     <t>traction</t>
@@ -80,6 +80,24 @@
     <t>celica-uri</t>
   </si>
   <si>
+    <t>celica-displacement-extended-uri</t>
+  </si>
+  <si>
+    <t>celica-torqueOutput-extended-uri</t>
+  </si>
+  <si>
+    <t>celica-dimensions-extended-uri</t>
+  </si>
+  <si>
+    <t>celica-curbWeight-extended-uri</t>
+  </si>
+  <si>
+    <t>celica-fuelCapacity-extended-uri</t>
+  </si>
+  <si>
+    <t>celica-price-extended-uri</t>
+  </si>
+  <si>
     <t>data-uri</t>
   </si>
   <si>
@@ -107,48 +125,42 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>1407</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>3800</t>
-  </si>
-  <si>
     <t>RWD</t>
   </si>
   <si>
-    <t>4170</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
     <t>Petrol</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://opendata.eurohelp.es/resource/Car/Specifications/Toyota-Celica-1-1-4</t>
   </si>
   <si>
+    <t>http://opendata.eurohelp.es/resource/Car/displacement/Toyota-Celica-1-1-4-1407</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/torqueOutput/Toyota-Celica-1-1-4-3800</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/dimensions/Toyota-Celica-1-1-4-4170-1600-1300</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/curbWeight/Toyota-Celica-1-1-4-890</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/fuelCapacity/Toyota-Celica-1-1-4-50</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/price/Toyota-Celica-1-1-4-</t>
+  </si>
+  <si>
     <t>http://opendata.eurohelp.es/resource/Car/Toyota-Celica</t>
   </si>
   <si>
@@ -167,30 +179,27 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>4410</t>
-  </si>
-  <si>
-    <t>1640</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>http://opendata.eurohelp.es/resource/Car/Specifications/Toyota-Celica-2-1-6</t>
   </si>
   <si>
+    <t>http://opendata.eurohelp.es/resource/Car/displacement/Toyota-Celica-2-1-6-1588</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/torqueOutput/Toyota-Celica-2-1-6-3600</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/dimensions/Toyota-Celica-2-1-6-4410-1640-1310</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/curbWeight/Toyota-Celica-2-1-6-1060</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/fuelCapacity/Toyota-Celica-2-1-6-61</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/price/Toyota-Celica-2-1-6-</t>
+  </si>
+  <si>
     <t>1985</t>
   </si>
   <si>
@@ -200,21 +209,27 @@
     <t>2T-B</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>4435</t>
-  </si>
-  <si>
-    <t>1665</t>
-  </si>
-  <si>
-    <t>1095</t>
-  </si>
-  <si>
     <t>http://opendata.eurohelp.es/resource/Car/Specifications/Toyota-Celica-3-1-6</t>
   </si>
   <si>
+    <t>http://opendata.eurohelp.es/resource/Car/displacement/Toyota-Celica-3-1-6-1588</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/torqueOutput/Toyota-Celica-3-1-6-4000</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/dimensions/Toyota-Celica-3-1-6-4435-1665-1310</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/curbWeight/Toyota-Celica-3-1-6-1095</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/fuelCapacity/Toyota-Celica-3-1-6-61</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/price/Toyota-Celica-3-1-6-</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -230,30 +245,30 @@
     <t>1.6 ST</t>
   </si>
   <si>
-    <t>1587</t>
-  </si>
-  <si>
     <t>FWD</t>
   </si>
   <si>
-    <t>4365</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>http://opendata.eurohelp.es/resource/Car/Specifications/Toyota-Celica-4-1-6-ST</t>
   </si>
   <si>
+    <t>http://opendata.eurohelp.es/resource/Car/displacement/Toyota-Celica-4-1-6-ST-1587</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/torqueOutput/Toyota-Celica-4-1-6-ST-3600</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/dimensions/Toyota-Celica-4-1-6-ST-4365-1710-1260</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/curbWeight/Toyota-Celica-4-1-6-ST-1032</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/fuelCapacity/Toyota-Celica-4-1-6-ST-60</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/price/Toyota-Celica-4-1-6-ST-</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -272,21 +287,27 @@
     <t>16</t>
   </si>
   <si>
-    <t>3200</t>
-  </si>
-  <si>
-    <t>4420</t>
-  </si>
-  <si>
-    <t>1745</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>http://opendata.eurohelp.es/resource/Car/Specifications/Toyota-Celica-5-1-6-STi</t>
   </si>
   <si>
+    <t>http://opendata.eurohelp.es/resource/Car/displacement/Toyota-Celica-5-1-6-STi-1587</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/torqueOutput/Toyota-Celica-5-1-6-STi-3200</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/dimensions/Toyota-Celica-5-1-6-STi-4420-1745-1300</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/curbWeight/Toyota-Celica-5-1-6-STi-1000</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/fuelCapacity/Toyota-Celica-5-1-6-STi-60</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/price/Toyota-Celica-5-1-6-STi-</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -302,24 +323,27 @@
     <t>1.8i</t>
   </si>
   <si>
-    <t>1762</t>
-  </si>
-  <si>
-    <t>4400</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>1170</t>
-  </si>
-  <si>
-    <t>18750</t>
-  </si>
-  <si>
     <t>http://opendata.eurohelp.es/resource/Car/Specifications/Toyota-Celica-6-1-8i</t>
   </si>
   <si>
+    <t>http://opendata.eurohelp.es/resource/Car/displacement/Toyota-Celica-6-1-8i-1762</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/torqueOutput/Toyota-Celica-6-1-8i-4400</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/dimensions/Toyota-Celica-6-1-8i-4420-1750-1300</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/curbWeight/Toyota-Celica-6-1-8i-1170</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/fuelCapacity/Toyota-Celica-6-1-8i-60</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/price/Toyota-Celica-6-1-8i-18750</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -335,28 +359,25 @@
     <t>1.8 VVT-i</t>
   </si>
   <si>
-    <t>1794</t>
-  </si>
-  <si>
-    <t>4200</t>
-  </si>
-  <si>
-    <t>4335</t>
-  </si>
-  <si>
-    <t>1735</t>
-  </si>
-  <si>
-    <t>1202</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>23440</t>
-  </si>
-  <si>
     <t>http://opendata.eurohelp.es/resource/Car/Specifications/Toyota-Celica-7-1-8-VVT-i</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/displacement/Toyota-Celica-7-1-8-VVT-i-1794</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/torqueOutput/Toyota-Celica-7-1-8-VVT-i-4200</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/dimensions/Toyota-Celica-7-1-8-VVT-i-4335-1735-1310</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/curbWeight/Toyota-Celica-7-1-8-VVT-i-1202</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/fuelCapacity/Toyota-Celica-7-1-8-VVT-i-55</t>
+  </si>
+  <si>
+    <t>http://opendata.eurohelp.es/resource/Car/price/Toyota-Celica-7-1-8-VVT-i-23440</t>
   </si>
 </sst>
 </file>
@@ -477,502 +498,636 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1407.0</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3800.0</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
         <v>38</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4170.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>890.0</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2"/>
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>45</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1588.0</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3600.0</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4410.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1640.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1310.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1060.0</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" t="s">
         <v>57</v>
       </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>58</v>
       </c>
-      <c r="W3" t="s">
-        <v>45</v>
+      <c r="Z3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1588.0</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4000.0</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4435.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1665.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1310.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1095.0</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" t="s">
-        <v>57</v>
+      <c r="R4" t="n">
+        <v>61.0</v>
       </c>
       <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
         <v>41</v>
       </c>
-      <c r="T4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" t="s">
-        <v>43</v>
-      </c>
+      <c r="U4"/>
       <c r="V4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" t="s">
         <v>66</v>
       </c>
-      <c r="W4" t="s">
-        <v>45</v>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1587.0</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3600.0</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" t="s">
         <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4365.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1710.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1032.0</v>
       </c>
       <c r="Q5" t="s">
         <v>39</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5" t="s">
         <v>78</v>
       </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>79</v>
       </c>
-      <c r="W5" t="s">
-        <v>45</v>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1587.0</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3200.0</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4420.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1745.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1000.0</v>
       </c>
       <c r="Q6" t="s">
         <v>39</v>
       </c>
-      <c r="R6" t="s">
-        <v>78</v>
+      <c r="R6" t="n">
+        <v>60.0</v>
       </c>
       <c r="S6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s">
         <v>41</v>
       </c>
-      <c r="T6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" t="s">
-        <v>43</v>
-      </c>
+      <c r="U6"/>
       <c r="V6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W6" t="s">
-        <v>45</v>
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1762.0</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4400.0</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4420.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1170.0</v>
       </c>
       <c r="Q7" t="s">
         <v>39</v>
       </c>
-      <c r="R7" t="s">
-        <v>78</v>
+      <c r="R7" t="n">
+        <v>60.0</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" t="s">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="U7" t="n">
+        <v>18750.0</v>
       </c>
       <c r="V7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W7" t="s">
-        <v>45</v>
+        <v>104</v>
+      </c>
+      <c r="X7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1794.0</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" t="s">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4200.0</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" t="s">
-        <v>111</v>
+        <v>77</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4335.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1735.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1310.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1202.0</v>
       </c>
       <c r="Q8" t="s">
         <v>39</v>
       </c>
-      <c r="R8" t="s">
-        <v>112</v>
+      <c r="R8" t="n">
+        <v>55.0</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" t="s">
-        <v>113</v>
+        <v>41</v>
+      </c>
+      <c r="U8" t="n">
+        <v>23440.0</v>
       </c>
       <c r="V8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W8" t="s">
-        <v>45</v>
+        <v>116</v>
+      </c>
+      <c r="X8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
